--- a/tut05/output/0501EE14.xlsx
+++ b/tut05/output/0501EE14.xlsx
@@ -550,16 +550,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>6.979591836734694</v>
+        <v>6.98</v>
       </c>
       <c r="C6" t="n">
-        <v>6.886363636363637</v>
+        <v>6.89</v>
       </c>
       <c r="D6" t="n">
-        <v>6.826086956521739</v>
+        <v>6.83</v>
       </c>
       <c r="E6" t="n">
-        <v>7.413043478260869</v>
+        <v>7.41</v>
       </c>
       <c r="F6" t="n">
         <v>8</v>
@@ -568,10 +568,10 @@
         <v>7.85</v>
       </c>
       <c r="H6" t="n">
-        <v>8.325581395348838</v>
+        <v>8.33</v>
       </c>
       <c r="I6" t="n">
-        <v>7.157894736842105</v>
+        <v>7.16</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.979591836734694</v>
+        <v>6.98</v>
       </c>
       <c r="C8" t="n">
-        <v>6.935483870967742</v>
+        <v>6.94</v>
       </c>
       <c r="D8" t="n">
-        <v>6.899280575539568</v>
+        <v>6.9</v>
       </c>
       <c r="E8" t="n">
-        <v>7.027027027027027</v>
+        <v>7.03</v>
       </c>
       <c r="F8" t="n">
-        <v>7.196428571428571</v>
+        <v>7.2</v>
       </c>
       <c r="G8" t="n">
-        <v>7.295454545454546</v>
+        <v>7.3</v>
       </c>
       <c r="H8" t="n">
-        <v>7.439739413680782</v>
+        <v>7.44</v>
       </c>
       <c r="I8" t="n">
-        <v>7.408695652173913</v>
+        <v>7.41</v>
       </c>
     </row>
   </sheetData>
